--- a/draft/figure/Graph/not_realtask/xls/Memcpy_cpuload_HtoD.xlsx
+++ b/draft/figure/Graph/not_realtask/xls/Memcpy_cpuload_HtoD.xlsx
@@ -15,6 +15,9 @@
     <sheet name="GPC4" sheetId="14" r:id="rId6"/>
     <sheet name="グラフ" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -357,7 +360,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1452,11 +1454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133888440"/>
-        <c:axId val="2081358104"/>
+        <c:axId val="2128968408"/>
+        <c:axId val="2125266456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133888440"/>
+        <c:axId val="2128968408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1481,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1496,7 +1497,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081358104"/>
+        <c:crossAx val="2125266456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1505,7 +1506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081358104"/>
+        <c:axId val="2125266456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -1530,14 +1531,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133888440"/>
+        <c:crossAx val="2128968408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1626,7 +1626,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3591,11 +3590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124969544"/>
-        <c:axId val="-2124963960"/>
+        <c:axId val="2129216920"/>
+        <c:axId val="2129222504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124969544"/>
+        <c:axId val="2129216920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,7 +3617,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3635,7 +3633,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124963960"/>
+        <c:crossAx val="2129222504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3644,7 +3642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124963960"/>
+        <c:axId val="2129222504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -3669,14 +3667,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124969544"/>
+        <c:crossAx val="2129216920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3757,7 +3754,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4780,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125173528"/>
-        <c:axId val="-2125167784"/>
+        <c:axId val="2126985752"/>
+        <c:axId val="2127073576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125173528"/>
+        <c:axId val="2126985752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4807,7 +4803,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4824,7 +4819,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125167784"/>
+        <c:crossAx val="2127073576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4833,7 +4828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125167784"/>
+        <c:axId val="2127073576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -4858,14 +4853,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125173528"/>
+        <c:crossAx val="2126985752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6834,11 +6828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2080598872"/>
-        <c:axId val="2080556504"/>
+        <c:axId val="2119384904"/>
+        <c:axId val="2119608936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2080598872"/>
+        <c:axId val="2119384904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6878,7 +6872,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080556504"/>
+        <c:crossAx val="2119608936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6887,7 +6881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080556504"/>
+        <c:axId val="2119608936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -6919,7 +6913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080598872"/>
+        <c:crossAx val="2119384904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6986,9 +6980,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0708867236919126"/>
-          <c:y val="0.087189292543021"/>
-          <c:w val="0.900063634132065"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
           <c:h val="0.775684760917655"/>
         </c:manualLayout>
       </c:layout>
@@ -7987,11 +7981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113477448"/>
-        <c:axId val="-2113471864"/>
+        <c:axId val="2130199544"/>
+        <c:axId val="2130201304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113477448"/>
+        <c:axId val="2130199544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8022,25 +8016,25 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-1500000"/>
+          <a:bodyPr rot="-1080000"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2200"/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113471864"/>
+        <c:crossAx val="2130201304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113471864"/>
+        <c:axId val="2130201304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -8055,13 +8049,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Data Transfer Time ( ms )</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1600"/>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8072,17 +8066,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113477448"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130199544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -8090,10 +8087,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0816846994845069"/>
-          <c:y val="0.234156366505267"/>
-          <c:w val="0.111360864064654"/>
-          <c:h val="0.276965642064879"/>
+          <c:x val="0.112490390715379"/>
+          <c:y val="0.0809147162105719"/>
+          <c:w val="0.149332387953875"/>
+          <c:h val="0.300541280571756"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8102,17 +8099,34 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -8146,9 +8160,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0708867236919126"/>
-          <c:y val="0.087189292543021"/>
-          <c:w val="0.900063634132065"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
           <c:h val="0.775684760917655"/>
         </c:manualLayout>
       </c:layout>
@@ -9147,11 +9161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137384216"/>
-        <c:axId val="2122147352"/>
+        <c:axId val="2130402504"/>
+        <c:axId val="2126150600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137384216"/>
+        <c:axId val="2130402504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9182,25 +9196,25 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-1500000"/>
+          <a:bodyPr rot="-1080000"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2200"/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122147352"/>
+        <c:crossAx val="2126150600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122147352"/>
+        <c:axId val="2126150600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -9215,13 +9229,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Data Transfer Time ( ms )</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1600"/>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9232,17 +9246,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137384216"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130402504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -9250,10 +9267,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.084082781019279"/>
-          <c:y val="0.224333183794069"/>
-          <c:w val="0.113758945599426"/>
-          <c:h val="0.278930278607119"/>
+          <c:x val="0.124480824788988"/>
+          <c:y val="0.222368547251829"/>
+          <c:w val="0.149332387953875"/>
+          <c:h val="0.300541280571756"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9262,17 +9279,34 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -9480,6 +9514,516 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DMA"/>
+      <sheetName val="IORW"/>
+      <sheetName val="PMEM"/>
+      <sheetName val="HUB"/>
+      <sheetName val="GPC"/>
+      <sheetName val="GPC4"/>
+      <sheetName val="グラフ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>16 B</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>32 B</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>64 B</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>128 B</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>256 B</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>512 B</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>1 KB</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>2 KB</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>4 KB</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>8 KB</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>16 KB</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>32 KB</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>64 KB</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>128 KB</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>256 KB</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>512 KB</v>
+          </cell>
+          <cell r="R5" t="str">
+            <v>1 MB</v>
+          </cell>
+          <cell r="S5" t="str">
+            <v>2 MB</v>
+          </cell>
+          <cell r="T5" t="str">
+            <v>4 MB</v>
+          </cell>
+          <cell r="U5" t="str">
+            <v>8 MB</v>
+          </cell>
+          <cell r="V5" t="str">
+            <v>16 MB</v>
+          </cell>
+          <cell r="W5" t="str">
+            <v>32 MB</v>
+          </cell>
+          <cell r="X5" t="str">
+            <v>64 MB</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.50439000000000012</v>
+          </cell>
+          <cell r="C9">
+            <v>0.56759999999999977</v>
+          </cell>
+          <cell r="D9">
+            <v>0.51110000000000022</v>
+          </cell>
+          <cell r="E9">
+            <v>0.53892999999999991</v>
+          </cell>
+          <cell r="F9">
+            <v>0.50746999999999987</v>
+          </cell>
+          <cell r="G9">
+            <v>0.52881000000000011</v>
+          </cell>
+          <cell r="H9">
+            <v>0.49443999999999988</v>
+          </cell>
+          <cell r="I9">
+            <v>0.53405000000000002</v>
+          </cell>
+          <cell r="J9">
+            <v>0.53729000000000005</v>
+          </cell>
+          <cell r="K9">
+            <v>0.59913999999999989</v>
+          </cell>
+          <cell r="L9">
+            <v>0.57677000000000012</v>
+          </cell>
+          <cell r="M9">
+            <v>0.63575000000000026</v>
+          </cell>
+          <cell r="N9">
+            <v>0.63066999999999995</v>
+          </cell>
+          <cell r="O9">
+            <v>0.60153999999999996</v>
+          </cell>
+          <cell r="P9">
+            <v>0.59076000000000006</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.64145000000000008</v>
+          </cell>
+          <cell r="R9">
+            <v>0.69660000000000011</v>
+          </cell>
+          <cell r="S9">
+            <v>0.86072000000000015</v>
+          </cell>
+          <cell r="T9">
+            <v>1.1444600000000005</v>
+          </cell>
+          <cell r="U9">
+            <v>1.81203</v>
+          </cell>
+          <cell r="V9">
+            <v>3.0765699999999976</v>
+          </cell>
+          <cell r="W9">
+            <v>5.6455799999999998</v>
+          </cell>
+          <cell r="X9">
+            <v>10.701120000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="9">
+          <cell r="B9">
+            <v>5.2200000000000033E-3</v>
+          </cell>
+          <cell r="C9">
+            <v>5.2700000000000038E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>4.9800000000000035E-3</v>
+          </cell>
+          <cell r="E9">
+            <v>4.7900000000000035E-3</v>
+          </cell>
+          <cell r="F9">
+            <v>4.9300000000000038E-3</v>
+          </cell>
+          <cell r="G9">
+            <v>5.0400000000000037E-3</v>
+          </cell>
+          <cell r="H9">
+            <v>5.2400000000000033E-3</v>
+          </cell>
+          <cell r="I9">
+            <v>5.4300000000000034E-3</v>
+          </cell>
+          <cell r="J9">
+            <v>5.7300000000000042E-3</v>
+          </cell>
+          <cell r="K9">
+            <v>6.6600000000000036E-3</v>
+          </cell>
+          <cell r="L9">
+            <v>8.2200000000000068E-3</v>
+          </cell>
+          <cell r="M9">
+            <v>1.3349999999999994E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>2.0759999999999983E-2</v>
+          </cell>
+          <cell r="O9">
+            <v>3.6059999999999974E-2</v>
+          </cell>
+          <cell r="P9">
+            <v>6.6920000000000007E-2</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.12551000000000001</v>
+          </cell>
+          <cell r="R9">
+            <v>0.23211999999999999</v>
+          </cell>
+          <cell r="S9">
+            <v>0.45490999999999993</v>
+          </cell>
+          <cell r="T9">
+            <v>0.92941000000000018</v>
+          </cell>
+          <cell r="U9">
+            <v>1.8752099999999994</v>
+          </cell>
+          <cell r="V9">
+            <v>3.7371900000000009</v>
+          </cell>
+          <cell r="W9">
+            <v>7.4926600000000017</v>
+          </cell>
+          <cell r="X9">
+            <v>14.880720000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="9">
+          <cell r="B9">
+            <v>2.8060000000000015E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>2.7830000000000008E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>2.6989999999999979E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.8099999999999984E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>2.8789999999999996E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>3.2656999999999985E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>3.6670000000000008E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>0.10956999999999997</v>
+          </cell>
+          <cell r="J9">
+            <v>6.6940000000000013E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>0.10956999999999997</v>
+          </cell>
+          <cell r="L9">
+            <v>0.19170000000000006</v>
+          </cell>
+          <cell r="M9">
+            <v>0.35800999999999999</v>
+          </cell>
+          <cell r="N9">
+            <v>0.68367</v>
+          </cell>
+          <cell r="O9">
+            <v>1.2691699999999995</v>
+          </cell>
+          <cell r="P9">
+            <v>2.6727299999999992</v>
+          </cell>
+          <cell r="Q9">
+            <v>5.2848900000000008</v>
+          </cell>
+          <cell r="R9">
+            <v>5.5413700000000006</v>
+          </cell>
+          <cell r="S9">
+            <v>10.123900000000003</v>
+          </cell>
+          <cell r="T9">
+            <v>20.651010230000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="9">
+          <cell r="B9">
+            <v>1.4790000000000001E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.4699999999999996E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.5049999999999994E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.4839999999999996E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.4659999999999998E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>1.6629999999999995E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>1.9139999999999994E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.6519999999999991E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>3.8649999999999969E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>6.3469999999999985E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>0.11298000000000007</v>
+          </cell>
+          <cell r="M9">
+            <v>0.21199999999999983</v>
+          </cell>
+          <cell r="N9">
+            <v>0.41116999999999981</v>
+          </cell>
+          <cell r="O9">
+            <v>0.81407999999999991</v>
+          </cell>
+          <cell r="P9">
+            <v>1.5812099999999989</v>
+          </cell>
+          <cell r="Q9">
+            <v>3.1228600000000011</v>
+          </cell>
+          <cell r="R9">
+            <v>6.2702000000000009</v>
+          </cell>
+          <cell r="S9">
+            <v>12.519739999999999</v>
+          </cell>
+          <cell r="T9">
+            <v>25.168320019999996</v>
+          </cell>
+          <cell r="U9">
+            <v>51.016309960000015</v>
+          </cell>
+          <cell r="V9">
+            <v>102.45390990999998</v>
+          </cell>
+          <cell r="W9">
+            <v>205.31741943999995</v>
+          </cell>
+          <cell r="X9">
+            <v>412.1913299900001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="9">
+          <cell r="B9">
+            <v>1.9709999999999991E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.9099999999999989E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.9949999999999982E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.9409999999999986E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.9089999999999992E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.2239999999999975E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.6419999999999968E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>3.6890000000000006E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>5.4399999999999969E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>8.8710000000000039E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>0.16</v>
+          </cell>
+          <cell r="M9">
+            <v>0.30190999999999979</v>
+          </cell>
+          <cell r="N9">
+            <v>0.58777000000000035</v>
+          </cell>
+          <cell r="O9">
+            <v>1.1417200000000001</v>
+          </cell>
+          <cell r="P9">
+            <v>2.2941399999999996</v>
+          </cell>
+          <cell r="Q9">
+            <v>4.5464499999999983</v>
+          </cell>
+          <cell r="R9">
+            <v>9.0558300000000038</v>
+          </cell>
+          <cell r="S9">
+            <v>18.160590089999999</v>
+          </cell>
+          <cell r="T9">
+            <v>36.537869999999984</v>
+          </cell>
+          <cell r="U9">
+            <v>73.476889779999951</v>
+          </cell>
+          <cell r="V9">
+            <v>147.25069986000003</v>
+          </cell>
+          <cell r="W9">
+            <v>294.9716695699999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="B9">
+            <v>2.0779999999999989E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>2.0369999999999996E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.990999999999999E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.9979999999999998E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.9790000000000002E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.0039999999999992E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.0569999999999991E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.2609999999999984E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>2.8690000000000011E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>3.6999999999999984E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>5.4009999999999996E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>9.0509999999999979E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>0.16283000000000006</v>
+          </cell>
+          <cell r="O9">
+            <v>0.30843999999999983</v>
+          </cell>
+          <cell r="P9">
+            <v>0.58264999999999989</v>
+          </cell>
+          <cell r="Q9">
+            <v>1.1656700000000002</v>
+          </cell>
+          <cell r="R9">
+            <v>2.303879999999999</v>
+          </cell>
+          <cell r="S9">
+            <v>4.5803000000000011</v>
+          </cell>
+          <cell r="T9">
+            <v>9.1295700000000028</v>
+          </cell>
+          <cell r="U9">
+            <v>18.454040150000004</v>
+          </cell>
+          <cell r="V9">
+            <v>37.025059740000017</v>
+          </cell>
+          <cell r="W9">
+            <v>74.142030670000025</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43167,7 +43711,7 @@
         <v>497.73498499999999</v>
       </c>
       <c r="Y7" s="2" t="e">
-        <f t="shared" ref="P7:Z7" si="5">MAX(Y10:Y109)-Y9</f>
+        <f t="shared" ref="Y7:Z7" si="5">MAX(Y10:Y109)-Y9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z7" s="2" t="e">
@@ -51490,7 +52034,7 @@
         <v>909.00897199999997</v>
       </c>
       <c r="Z7" s="2" t="e">
-        <f t="shared" ref="P7:Z7" si="5">MAX(Z10:Z109)-Z9</f>
+        <f t="shared" ref="Z7" si="5">MAX(Z10:Z109)-Z9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -59420,8 +59964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B116" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
